--- a/Reponedores CENCOSUD.xlsx
+++ b/Reponedores CENCOSUD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Supermercados\CENCOSUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F4608C-3398-4305-902C-EDB09DC5AB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBE3EDC-6EBD-4311-83B6-9C0A48370FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="171">
-  <si>
-    <t xml:space="preserve">jumbo ñuñoa </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="175">
   <si>
     <t>j775</t>
   </si>
@@ -43,333 +40,183 @@
     <t>Danilo</t>
   </si>
   <si>
-    <t xml:space="preserve">jumbo bilbao </t>
-  </si>
-  <si>
     <t>j501</t>
   </si>
   <si>
-    <t xml:space="preserve">jumbo peñalolen </t>
-  </si>
-  <si>
     <t>j519</t>
   </si>
   <si>
     <t xml:space="preserve">Danilo </t>
   </si>
   <si>
-    <t>sisa grecia</t>
-  </si>
-  <si>
     <t>n736</t>
   </si>
   <si>
     <t>jueves</t>
   </si>
   <si>
-    <t>sisa ossandon</t>
-  </si>
-  <si>
     <t>n626</t>
   </si>
   <si>
     <t xml:space="preserve">miércoles </t>
   </si>
   <si>
-    <t>sisa tobalaba</t>
-  </si>
-  <si>
     <t>n698</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa consistorial </t>
-  </si>
-  <si>
     <t>n991</t>
   </si>
   <si>
-    <t xml:space="preserve">jumbo pajaritos </t>
-  </si>
-  <si>
     <t>j770</t>
   </si>
   <si>
     <t>Jorge</t>
   </si>
   <si>
-    <t xml:space="preserve">jumbo mall arauco </t>
-  </si>
-  <si>
     <t>j503</t>
   </si>
   <si>
     <t xml:space="preserve">Jorge </t>
   </si>
   <si>
-    <t xml:space="preserve">sisa mall arauco </t>
-  </si>
-  <si>
     <t>n314</t>
   </si>
   <si>
     <t>lunes</t>
   </si>
   <si>
-    <t>sisa plaza maipu</t>
-  </si>
-  <si>
     <t>n806</t>
   </si>
   <si>
     <t>martes</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa pajaritos </t>
-  </si>
-  <si>
     <t>n757</t>
   </si>
   <si>
-    <t>sisa farfana</t>
-  </si>
-  <si>
     <t>n589</t>
   </si>
   <si>
-    <t>sisa calera tango</t>
-  </si>
-  <si>
     <t>n186</t>
   </si>
   <si>
-    <t>sisa bosque maipu</t>
-  </si>
-  <si>
     <t>n987</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa ciudad satélite </t>
-  </si>
-  <si>
-    <t>sisa cdad satélite  alcazar</t>
-  </si>
-  <si>
     <t>n654</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa 3 poniente </t>
-  </si>
-  <si>
     <t>n758</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa padre hurtado </t>
-  </si>
-  <si>
     <t>n976</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa travesía </t>
-  </si>
-  <si>
     <t>n5</t>
   </si>
   <si>
-    <t>jumbo kennedy</t>
-  </si>
-  <si>
     <t>j502</t>
   </si>
   <si>
-    <t>jumbo costanera</t>
-  </si>
-  <si>
     <t>j511</t>
   </si>
   <si>
-    <t>jumbo reina</t>
-  </si>
-  <si>
     <t>j512</t>
   </si>
   <si>
-    <t xml:space="preserve">jumbo lo castillo </t>
-  </si>
-  <si>
     <t>j810</t>
   </si>
   <si>
-    <t>jumbo alba</t>
-  </si>
-  <si>
     <t>j624</t>
   </si>
   <si>
-    <t>sisa fleming</t>
-  </si>
-  <si>
     <t>n639</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa dominicos </t>
-  </si>
-  <si>
     <t>n319</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa apoquindo </t>
-  </si>
-  <si>
     <t>n284</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa providencia </t>
-  </si>
-  <si>
     <t>n46</t>
   </si>
   <si>
     <t xml:space="preserve">sábado </t>
   </si>
   <si>
-    <t xml:space="preserve">jumbo Florida </t>
-  </si>
-  <si>
     <t>j510</t>
   </si>
   <si>
-    <t>jumbo pte alto</t>
-  </si>
-  <si>
     <t>j613</t>
   </si>
   <si>
-    <t xml:space="preserve">jumbo concha y toro </t>
-  </si>
-  <si>
     <t>j659</t>
   </si>
   <si>
-    <t xml:space="preserve">jumbo las lilas </t>
-  </si>
-  <si>
     <t>j843</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa lo ovalle </t>
-  </si>
-  <si>
     <t>n765</t>
   </si>
   <si>
-    <t>sisa intermodal</t>
-  </si>
-  <si>
     <t>n601</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa el bosque </t>
-  </si>
-  <si>
     <t>n702</t>
   </si>
   <si>
-    <t>sisa eucalipto</t>
-  </si>
-  <si>
     <t>n847</t>
   </si>
   <si>
-    <t>sisa almte riveros</t>
-  </si>
-  <si>
     <t>n926</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa 22 la Florida </t>
-  </si>
-  <si>
     <t>n766</t>
   </si>
   <si>
     <t>Antonio</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa 19 la Florida </t>
-  </si>
-  <si>
     <t>n764</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa trinidad </t>
-  </si>
-  <si>
     <t>n834</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa plazuela pte alto </t>
-  </si>
-  <si>
     <t>n672</t>
   </si>
   <si>
-    <t>sisa grajales</t>
-  </si>
-  <si>
     <t>n612</t>
   </si>
   <si>
     <t xml:space="preserve">viernes </t>
   </si>
   <si>
-    <t>sisa ecuador</t>
-  </si>
-  <si>
     <t>n603</t>
   </si>
   <si>
-    <t>sisa mapocho</t>
-  </si>
-  <si>
     <t>n763</t>
   </si>
   <si>
-    <t xml:space="preserve">sisa huérfanos </t>
-  </si>
-  <si>
     <t>n771</t>
   </si>
   <si>
-    <t>sisa recoleta</t>
-  </si>
-  <si>
     <t>n823</t>
   </si>
   <si>
-    <t>sisa independencia</t>
-  </si>
-  <si>
     <t>n802</t>
   </si>
   <si>
-    <t>sisa vivaceta</t>
-  </si>
-  <si>
     <t>n321</t>
   </si>
   <si>
-    <t>jumbo trapenses</t>
-  </si>
-  <si>
     <t>j702</t>
   </si>
   <si>
     <t xml:space="preserve">Edgardo </t>
   </si>
   <si>
-    <t xml:space="preserve">sisa cta gallo </t>
-  </si>
-  <si>
     <t>n776</t>
   </si>
   <si>
@@ -545,6 +392,171 @@
   </si>
   <si>
     <t>Jenifer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA Apoquindo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA Dominicos </t>
+  </si>
+  <si>
+    <t>SISA Fleming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA Providencia </t>
+  </si>
+  <si>
+    <t>SISA Almirante Riveros</t>
+  </si>
+  <si>
+    <t>SISA Eucalipto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA El Bosque </t>
+  </si>
+  <si>
+    <t>SISA Intermodal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA Lo Ovalle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA Padre Hurtado </t>
+  </si>
+  <si>
+    <t>SISA Calera De Tango</t>
+  </si>
+  <si>
+    <t>SISA Mall Arauco</t>
+  </si>
+  <si>
+    <t>SISA Bosque Maipu</t>
+  </si>
+  <si>
+    <t>SISA Ciudad Satélite Alcazar</t>
+  </si>
+  <si>
+    <t>SISA Plaza Maipu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA Travesía </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA 3 Poniente </t>
+  </si>
+  <si>
+    <t>SISA Farfana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA Pajaritos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA Plazuela Puente Alto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA 19 La Florida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA 22 La Florida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA Trinidad </t>
+  </si>
+  <si>
+    <t>SISA Independencia</t>
+  </si>
+  <si>
+    <t>SISA Recoleta</t>
+  </si>
+  <si>
+    <t>SISA Vivaceta</t>
+  </si>
+  <si>
+    <t>SISA Ecuador</t>
+  </si>
+  <si>
+    <t>SISA Grajales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA Huérfanos </t>
+  </si>
+  <si>
+    <t>SISA Mapocho</t>
+  </si>
+  <si>
+    <t>SISA Grecia</t>
+  </si>
+  <si>
+    <t>SISA Consistorial</t>
+  </si>
+  <si>
+    <t>SISA Ossandon</t>
+  </si>
+  <si>
+    <t>SISA Tobalaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISA Canta Gallo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumbo Bilbao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumbo Ñuñoa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumbo Peñalolen </t>
+  </si>
+  <si>
+    <t>Jumbo Costanera</t>
+  </si>
+  <si>
+    <t>Jumbo Kennedy</t>
+  </si>
+  <si>
+    <t>Jumbo La Reina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumbo Lo Castillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumbo Mall Arauco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumbo La Florida </t>
+  </si>
+  <si>
+    <t>Jumbo Puente Alto</t>
+  </si>
+  <si>
+    <t>Jumbo El Alba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumbo Concha y Toro </t>
+  </si>
+  <si>
+    <t>Jumbo Los Trapenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumbo Pajaritos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumbo Las Lilas </t>
+  </si>
+  <si>
+    <t>J514</t>
+  </si>
+  <si>
+    <t>Jumbo La Dehesa</t>
+  </si>
+  <si>
+    <t>j958</t>
+  </si>
+  <si>
+    <t>J958</t>
+  </si>
+  <si>
+    <t>Jumbo "por saber"</t>
   </si>
 </sst>
 </file>
@@ -574,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -595,11 +607,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -607,6 +630,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +655,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G75" totalsRowShown="0">
-  <autoFilter ref="A1:G75" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G78" totalsRowShown="0">
+  <autoFilter ref="A1:G78" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G75">
-    <sortCondition ref="E1:E75"/>
+    <sortCondition ref="C1:C75"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F2F23DCE-C9C5-4B3E-A9B6-1399547ADD94}" name="LOCAL"/>
@@ -944,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714BCE76-32ED-E444-A031-ED290FE4EDA4}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:E56"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,1733 +989,1803 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>167</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>168</v>
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>168</v>
+        <v>39</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>169</v>
-      </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
         <v>52</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="D36">
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>166</v>
+        <v>40</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>137</v>
+        <v>26</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>141</v>
+        <v>33</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>143</v>
+        <v>58</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>149</v>
+        <v>23</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>148</v>
+        <v>35</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="D53">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>142</v>
+        <v>21</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>144</v>
+        <v>15</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>164</v>
+        <v>46</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>129</v>
+        <v>61</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>132</v>
+        <v>34</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>132</v>
+        <v>57</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F68">
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>162</v>
+        <v>56</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>127</v>
+        <v>49</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>127</v>
+      <c r="C74" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>95</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>60</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Reponedores CENCOSUD.xlsx
+++ b/Reponedores CENCOSUD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBE3EDC-6EBD-4311-83B6-9C0A48370FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7285104A-DD20-42C5-8356-0F9C8B326D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="203">
   <si>
     <t>j775</t>
   </si>
@@ -557,13 +557,97 @@
   </si>
   <si>
     <t>Jumbo "por saber"</t>
+  </si>
+  <si>
+    <t>J507</t>
+  </si>
+  <si>
+    <t>Reponedor Pto. Montt</t>
+  </si>
+  <si>
+    <t>J919</t>
+  </si>
+  <si>
+    <t>N734</t>
+  </si>
+  <si>
+    <t>N587</t>
+  </si>
+  <si>
+    <t>N904</t>
+  </si>
+  <si>
+    <t>N733</t>
+  </si>
+  <si>
+    <t>N906</t>
+  </si>
+  <si>
+    <t>SISA Pto. Varas</t>
+  </si>
+  <si>
+    <t>SISA Pto. Montt Diego Portales</t>
+  </si>
+  <si>
+    <t>SISA Pto. Montt Valle Vol.</t>
+  </si>
+  <si>
+    <t>SISA Pto. Montt Sargento</t>
+  </si>
+  <si>
+    <t>SISA Pto. Varas Del Salvador</t>
+  </si>
+  <si>
+    <t>Reponedor Temuco</t>
+  </si>
+  <si>
+    <t>Jumbo Ejercitox</t>
+  </si>
+  <si>
+    <t>Jumbo Doña Ema</t>
+  </si>
+  <si>
+    <t>Jumbo Av. Alemania Temuco</t>
+  </si>
+  <si>
+    <t>Jumbo Los Pablos Temuco</t>
+  </si>
+  <si>
+    <t>J506</t>
+  </si>
+  <si>
+    <t>J970</t>
+  </si>
+  <si>
+    <t>SISA Manuel Rodriguez</t>
+  </si>
+  <si>
+    <t>SISA Tuma</t>
+  </si>
+  <si>
+    <t>SISA Padre las Casas</t>
+  </si>
+  <si>
+    <t>SISA Bulnes</t>
+  </si>
+  <si>
+    <t>N732</t>
+  </si>
+  <si>
+    <t>N826</t>
+  </si>
+  <si>
+    <t>N625</t>
+  </si>
+  <si>
+    <t>N554</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,8 +655,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,8 +676,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -618,11 +715,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -633,6 +774,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,8 +843,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G78" totalsRowShown="0">
-  <autoFilter ref="A1:G78" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G110" totalsRowShown="0">
+  <autoFilter ref="A1:G110" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G75">
     <sortCondition ref="C1:C75"/>
   </sortState>
@@ -970,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714BCE76-32ED-E444-A031-ED290FE4EDA4}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2759,7 +2947,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="A78" s="16" t="s">
         <v>174</v>
       </c>
       <c r="B78" t="s">
@@ -2779,6 +2967,742 @@
       </c>
       <c r="G78" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>176</v>
+      </c>
+      <c r="F79" s="13">
+        <v>1</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" s="13">
+        <v>7</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F80" s="13">
+        <v>3</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="13">
+        <v>7</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F81" s="13">
+        <v>4</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82" s="13">
+        <v>7</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F82" s="13">
+        <v>6</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" s="15">
+        <v>7</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F83" s="15">
+        <v>2</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" s="15">
+        <v>7</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F84" s="15">
+        <v>5</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="15">
+        <v>7</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F85" s="15">
+        <v>3</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="15">
+        <v>7</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" s="15">
+        <v>5</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" s="15">
+        <v>7</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F87" s="15">
+        <v>3</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="15">
+        <v>7</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F88" s="15">
+        <v>4</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="15">
+        <v>7</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" s="15">
+        <v>2</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="15">
+        <v>7</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" s="15">
+        <v>5</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="15">
+        <v>7</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" s="15">
+        <v>2</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" s="18">
+        <v>1</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" s="18">
+        <v>8</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F93" s="18">
+        <v>2</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="18">
+        <v>8</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F94" s="18">
+        <v>3</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" s="18">
+        <v>8</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" s="18">
+        <v>4</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="18">
+        <v>8</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" s="18">
+        <v>5</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="18">
+        <v>8</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" s="18">
+        <v>6</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" s="12">
+        <v>8</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" s="10">
+        <v>1</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" s="26">
+        <v>8</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" s="26">
+        <v>2</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D100" s="26">
+        <v>8</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" s="26">
+        <v>3</v>
+      </c>
+      <c r="G100" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" s="26">
+        <v>8</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F101" s="26">
+        <v>4</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="26">
+        <v>8</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F102" s="26">
+        <v>5</v>
+      </c>
+      <c r="G102" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D103" s="31">
+        <v>8</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F103" s="31">
+        <v>6</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="31">
+        <v>8</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F104" s="26">
+        <v>1</v>
+      </c>
+      <c r="G104" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" s="31">
+        <v>8</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F105" s="26">
+        <v>5</v>
+      </c>
+      <c r="G105" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D106" s="31">
+        <v>8</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F106" s="26">
+        <v>1</v>
+      </c>
+      <c r="G106" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D107" s="31">
+        <v>8</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F107" s="26">
+        <v>5</v>
+      </c>
+      <c r="G107" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="31">
+        <v>8</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F108" s="26">
+        <v>3</v>
+      </c>
+      <c r="G108" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D109" s="31">
+        <v>8</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F109" s="26">
+        <v>1</v>
+      </c>
+      <c r="G109" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D110" s="31">
+        <v>8</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="F110" s="26">
+        <v>5</v>
+      </c>
+      <c r="G110" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Reponedores CENCOSUD.xlsx
+++ b/Reponedores CENCOSUD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7285104A-DD20-42C5-8356-0F9C8B326D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE3E18B-EBF9-4739-A37B-0E5D5637E627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="220">
   <si>
     <t>j775</t>
   </si>
@@ -641,6 +641,57 @@
   </si>
   <si>
     <t>N554</t>
+  </si>
+  <si>
+    <t>Reponedor Chillán</t>
+  </si>
+  <si>
+    <t>J532</t>
+  </si>
+  <si>
+    <t>J649</t>
+  </si>
+  <si>
+    <t>N663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumbo Grande Chillán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumbo Vicente Mendez Chillán </t>
+  </si>
+  <si>
+    <t>SISA El Roble Chillán</t>
+  </si>
+  <si>
+    <t>J695</t>
+  </si>
+  <si>
+    <t>Reponedor Los Angeles</t>
+  </si>
+  <si>
+    <t>Jumbo Los Angeles</t>
+  </si>
+  <si>
+    <t>J633</t>
+  </si>
+  <si>
+    <t>J676</t>
+  </si>
+  <si>
+    <t>J809</t>
+  </si>
+  <si>
+    <t>Jumbo Hulapén</t>
+  </si>
+  <si>
+    <t>Reponedor Concepción</t>
+  </si>
+  <si>
+    <t>Jumbo Super Pedro de Valdivia</t>
+  </si>
+  <si>
+    <t>Jumbo Mall Concepción</t>
   </si>
 </sst>
 </file>
@@ -763,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -821,6 +872,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,8 +903,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G110" totalsRowShown="0">
-  <autoFilter ref="A1:G110" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G139" totalsRowShown="0">
+  <autoFilter ref="A1:G139" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G75">
     <sortCondition ref="C1:C75"/>
   </sortState>
@@ -1158,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714BCE76-32ED-E444-A031-ED290FE4EDA4}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,7 +1229,7 @@
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
@@ -3705,6 +3765,673 @@
         <v>52</v>
       </c>
     </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D111">
+        <v>9</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F111" s="26">
+        <v>1</v>
+      </c>
+      <c r="G111" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D112" s="18">
+        <v>9</v>
+      </c>
+      <c r="E112" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F112" s="26">
+        <v>2</v>
+      </c>
+      <c r="G112" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" s="18">
+        <v>9</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F113" s="26">
+        <v>3</v>
+      </c>
+      <c r="G113" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D114" s="18">
+        <v>9</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F114" s="31">
+        <v>4</v>
+      </c>
+      <c r="G114" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D115" s="35">
+        <v>9</v>
+      </c>
+      <c r="E115" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F115" s="36">
+        <v>5</v>
+      </c>
+      <c r="G115" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D116" s="35">
+        <v>9</v>
+      </c>
+      <c r="E116" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F116" s="36">
+        <v>6</v>
+      </c>
+      <c r="G116" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D117" s="36">
+        <v>9</v>
+      </c>
+      <c r="E117" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F117" s="36">
+        <v>1</v>
+      </c>
+      <c r="G117" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D118" s="36">
+        <v>9</v>
+      </c>
+      <c r="E118" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F118" s="36">
+        <v>3</v>
+      </c>
+      <c r="G118" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D119" s="36">
+        <v>9</v>
+      </c>
+      <c r="E119" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F119" s="36">
+        <v>5</v>
+      </c>
+      <c r="G119" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D120" s="36">
+        <v>9</v>
+      </c>
+      <c r="E120" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F120" s="36">
+        <v>6</v>
+      </c>
+      <c r="G120" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D121" s="36">
+        <v>9</v>
+      </c>
+      <c r="E121" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F121" s="36">
+        <v>1</v>
+      </c>
+      <c r="G121" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D122" s="36">
+        <v>9</v>
+      </c>
+      <c r="E122" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F122" s="36">
+        <v>3</v>
+      </c>
+      <c r="G122" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D123" s="36">
+        <v>9</v>
+      </c>
+      <c r="E123" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F123" s="36">
+        <v>6</v>
+      </c>
+      <c r="G123" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D124" s="8">
+        <v>10</v>
+      </c>
+      <c r="E124" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F124" s="36">
+        <v>1</v>
+      </c>
+      <c r="G124" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D125" s="8">
+        <v>10</v>
+      </c>
+      <c r="E125" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F125" s="36">
+        <v>3</v>
+      </c>
+      <c r="G125" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D126" s="8">
+        <v>10</v>
+      </c>
+      <c r="E126" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F126" s="36">
+        <v>6</v>
+      </c>
+      <c r="G126" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D127">
+        <v>11</v>
+      </c>
+      <c r="E127" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F127" s="26">
+        <v>1</v>
+      </c>
+      <c r="G127" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D128" s="37">
+        <v>11</v>
+      </c>
+      <c r="E128" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F128" s="26">
+        <v>2</v>
+      </c>
+      <c r="G128" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D129" s="37">
+        <v>11</v>
+      </c>
+      <c r="E129" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F129" s="26">
+        <v>3</v>
+      </c>
+      <c r="G129" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D130" s="37">
+        <v>11</v>
+      </c>
+      <c r="E130" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F130" s="31">
+        <v>4</v>
+      </c>
+      <c r="G130" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D131" s="37">
+        <v>11</v>
+      </c>
+      <c r="E131" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F131" s="36">
+        <v>5</v>
+      </c>
+      <c r="G131" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132" s="37">
+        <v>11</v>
+      </c>
+      <c r="E132" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F132" s="36">
+        <v>6</v>
+      </c>
+      <c r="G132" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" s="37">
+        <v>11</v>
+      </c>
+      <c r="E133" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F133" s="26">
+        <v>1</v>
+      </c>
+      <c r="G133" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D134" s="37">
+        <v>11</v>
+      </c>
+      <c r="E134" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F134" s="26">
+        <v>2</v>
+      </c>
+      <c r="G134" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D135" s="37">
+        <v>11</v>
+      </c>
+      <c r="E135" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F135" s="26">
+        <v>3</v>
+      </c>
+      <c r="G135" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D136" s="37">
+        <v>11</v>
+      </c>
+      <c r="E136" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F136" s="31">
+        <v>4</v>
+      </c>
+      <c r="G136" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D137" s="37">
+        <v>11</v>
+      </c>
+      <c r="E137" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F137" s="36">
+        <v>5</v>
+      </c>
+      <c r="G137" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D138" s="37">
+        <v>11</v>
+      </c>
+      <c r="E138" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F138" s="36">
+        <v>6</v>
+      </c>
+      <c r="G138" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D139" s="37">
+        <v>11</v>
+      </c>
+      <c r="E139" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F139" s="26">
+        <v>1</v>
+      </c>
+      <c r="G139" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Reponedores CENCOSUD.xlsx
+++ b/Reponedores CENCOSUD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE3E18B-EBF9-4739-A37B-0E5D5637E627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC604F26-E700-47AE-AA78-0214C546B336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="229">
   <si>
     <t>j775</t>
   </si>
@@ -692,6 +692,33 @@
   </si>
   <si>
     <t>Jumbo Mall Concepción</t>
+  </si>
+  <si>
+    <t>Jumbo Puertas de Chicureo</t>
+  </si>
+  <si>
+    <t>J988</t>
+  </si>
+  <si>
+    <t>Reponedor Chicureo</t>
+  </si>
+  <si>
+    <t>J992</t>
+  </si>
+  <si>
+    <t>J989</t>
+  </si>
+  <si>
+    <t>N692</t>
+  </si>
+  <si>
+    <t>Jumbo Chamisero</t>
+  </si>
+  <si>
+    <t>Jumbo Independencia</t>
+  </si>
+  <si>
+    <t>SISA Pedro Fontova</t>
   </si>
 </sst>
 </file>
@@ -903,8 +930,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G139" totalsRowShown="0">
-  <autoFilter ref="A1:G139" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G149" totalsRowShown="0">
+  <autoFilter ref="A1:G149" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G75">
     <sortCondition ref="C1:C75"/>
   </sortState>
@@ -1218,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714BCE76-32ED-E444-A031-ED290FE4EDA4}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4432,6 +4459,236 @@
         <v>16</v>
       </c>
     </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>220</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D140">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>222</v>
+      </c>
+      <c r="F140" s="26">
+        <v>1</v>
+      </c>
+      <c r="G140" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D141" s="37">
+        <v>12</v>
+      </c>
+      <c r="E141" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F141" s="31">
+        <v>3</v>
+      </c>
+      <c r="G141" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D142" s="37">
+        <v>12</v>
+      </c>
+      <c r="E142" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F142" s="36">
+        <v>5</v>
+      </c>
+      <c r="G142" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D143" s="37">
+        <v>12</v>
+      </c>
+      <c r="E143" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F143" s="26">
+        <v>1</v>
+      </c>
+      <c r="G143" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D144" s="37">
+        <v>12</v>
+      </c>
+      <c r="E144" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F144" s="31">
+        <v>3</v>
+      </c>
+      <c r="G144" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D145" s="37">
+        <v>12</v>
+      </c>
+      <c r="E145" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F145" s="36">
+        <v>5</v>
+      </c>
+      <c r="G145" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D146" s="37">
+        <v>12</v>
+      </c>
+      <c r="E146" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F146" s="31">
+        <v>4</v>
+      </c>
+      <c r="G146" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D147" s="37">
+        <v>12</v>
+      </c>
+      <c r="E147" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F147" s="36">
+        <v>6</v>
+      </c>
+      <c r="G147" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D148" s="37">
+        <v>12</v>
+      </c>
+      <c r="E148" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F148" s="26">
+        <v>2</v>
+      </c>
+      <c r="G148" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D149" s="37">
+        <v>12</v>
+      </c>
+      <c r="E149" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F149" s="31">
+        <v>4</v>
+      </c>
+      <c r="G149" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Reponedores CENCOSUD.xlsx
+++ b/Reponedores CENCOSUD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC604F26-E700-47AE-AA78-0214C546B336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA087DA-4332-4319-9FA2-F4942D4B51BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="231">
   <si>
     <t>j775</t>
   </si>
@@ -719,6 +719,12 @@
   </si>
   <si>
     <t>SISA Pedro Fontova</t>
+  </si>
+  <si>
+    <t>Jumbo El Llano</t>
+  </si>
+  <si>
+    <t>J513</t>
   </si>
 </sst>
 </file>
@@ -930,8 +936,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G149" totalsRowShown="0">
-  <autoFilter ref="A1:G149" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G151" totalsRowShown="0">
+  <autoFilter ref="A1:G151" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G75">
     <sortCondition ref="C1:C75"/>
   </sortState>
@@ -1245,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714BCE76-32ED-E444-A031-ED290FE4EDA4}">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4689,6 +4695,52 @@
         <v>6</v>
       </c>
     </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D150" s="37">
+        <v>4</v>
+      </c>
+      <c r="E150" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F150" s="36">
+        <v>5</v>
+      </c>
+      <c r="G150" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D151" s="37">
+        <v>4</v>
+      </c>
+      <c r="E151" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F151" s="36">
+        <v>6</v>
+      </c>
+      <c r="G151" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Reponedores CENCOSUD.xlsx
+++ b/Reponedores CENCOSUD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA087DA-4332-4319-9FA2-F4942D4B51BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877A37F3-7577-4B4E-87D4-2585C19D9DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="234">
   <si>
     <t>j775</t>
   </si>
@@ -725,6 +725,15 @@
   </si>
   <si>
     <t>J513</t>
+  </si>
+  <si>
+    <t>Jumbo Iquique</t>
+  </si>
+  <si>
+    <t>J660</t>
+  </si>
+  <si>
+    <t>Claudia</t>
   </si>
 </sst>
 </file>
@@ -936,8 +945,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G151" totalsRowShown="0">
-  <autoFilter ref="A1:G151" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G157" totalsRowShown="0">
+  <autoFilter ref="A1:G157" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G75">
     <sortCondition ref="C1:C75"/>
   </sortState>
@@ -1251,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714BCE76-32ED-E444-A031-ED290FE4EDA4}">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+      <selection activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4741,6 +4750,144 @@
         <v>36</v>
       </c>
     </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>231</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D152">
+        <v>13</v>
+      </c>
+      <c r="E152" t="s">
+        <v>233</v>
+      </c>
+      <c r="F152" s="26">
+        <v>1</v>
+      </c>
+      <c r="G152" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D153" s="37">
+        <v>13</v>
+      </c>
+      <c r="E153" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F153" s="26">
+        <v>2</v>
+      </c>
+      <c r="G153" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D154" s="37">
+        <v>13</v>
+      </c>
+      <c r="E154" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F154" s="26">
+        <v>3</v>
+      </c>
+      <c r="G154" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D155" s="37">
+        <v>13</v>
+      </c>
+      <c r="E155" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F155" s="31">
+        <v>4</v>
+      </c>
+      <c r="G155" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D156" s="37">
+        <v>13</v>
+      </c>
+      <c r="E156" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F156" s="36">
+        <v>5</v>
+      </c>
+      <c r="G156" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D157" s="37">
+        <v>13</v>
+      </c>
+      <c r="E157" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F157" s="36">
+        <v>6</v>
+      </c>
+      <c r="G157" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Reponedores CENCOSUD.xlsx
+++ b/Reponedores CENCOSUD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877A37F3-7577-4B4E-87D4-2585C19D9DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C993181-CD3B-47F1-AF06-7C6738F0821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="241">
   <si>
     <t>j775</t>
   </si>
@@ -734,6 +734,27 @@
   </si>
   <si>
     <t>Claudia</t>
+  </si>
+  <si>
+    <t>J521</t>
+  </si>
+  <si>
+    <t>Jumbo La Serena</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
+  <si>
+    <t>N648</t>
+  </si>
+  <si>
+    <t>SISA La Serena San Joaquin</t>
+  </si>
+  <si>
+    <t>J656</t>
+  </si>
+  <si>
+    <t>Jumbo Super La Serena ULR</t>
   </si>
 </sst>
 </file>
@@ -945,8 +966,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G157" totalsRowShown="0">
-  <autoFilter ref="A1:G157" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}" name="Tabla1" displayName="Tabla1" ref="A1:G168" totalsRowShown="0">
+  <autoFilter ref="A1:G168" xr:uid="{7DFE2003-F3D9-42CC-9CBE-88474409C339}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G75">
     <sortCondition ref="C1:C75"/>
   </sortState>
@@ -1260,15 +1281,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714BCE76-32ED-E444-A031-ED290FE4EDA4}">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K148" sqref="K148"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" customWidth="1"/>
@@ -4888,6 +4909,259 @@
         <v>36</v>
       </c>
     </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>235</v>
+      </c>
+      <c r="B158" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C158" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="D158">
+        <v>14</v>
+      </c>
+      <c r="E158" t="s">
+        <v>236</v>
+      </c>
+      <c r="F158" s="26">
+        <v>1</v>
+      </c>
+      <c r="G158" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B159" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="D159" s="37">
+        <v>14</v>
+      </c>
+      <c r="E159" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F159" s="26">
+        <v>2</v>
+      </c>
+      <c r="G159" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B160" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="D160" s="37">
+        <v>14</v>
+      </c>
+      <c r="E160" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F160" s="26">
+        <v>3</v>
+      </c>
+      <c r="G160" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B161" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="D161" s="37">
+        <v>14</v>
+      </c>
+      <c r="E161" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F161" s="31">
+        <v>4</v>
+      </c>
+      <c r="G161" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B162" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C162" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="D162" s="37">
+        <v>14</v>
+      </c>
+      <c r="E162" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F162" s="36">
+        <v>5</v>
+      </c>
+      <c r="G162" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B163" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D163" s="37">
+        <v>14</v>
+      </c>
+      <c r="E163" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F163" s="26">
+        <v>1</v>
+      </c>
+      <c r="G163" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B164" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C164" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D164" s="37">
+        <v>14</v>
+      </c>
+      <c r="E164" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F164" s="31">
+        <v>3</v>
+      </c>
+      <c r="G164" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B165" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D165" s="37">
+        <v>14</v>
+      </c>
+      <c r="E165" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F165" s="36">
+        <v>5</v>
+      </c>
+      <c r="G165" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>240</v>
+      </c>
+      <c r="B166" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C166" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D166" s="37">
+        <v>14</v>
+      </c>
+      <c r="E166" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F166" s="26">
+        <v>1</v>
+      </c>
+      <c r="G166" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B167" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C167" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D167" s="37">
+        <v>14</v>
+      </c>
+      <c r="E167" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F167" s="31">
+        <v>3</v>
+      </c>
+      <c r="G167" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B168" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C168" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D168" s="37">
+        <v>14</v>
+      </c>
+      <c r="E168" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F168" s="36">
+        <v>5</v>
+      </c>
+      <c r="G168" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
